--- a/docs/sw/sw-WoundTunnelingAssessment-model.xlsx
+++ b/docs/sw/sw-WoundTunnelingAssessment-model.xlsx
@@ -134,7 +134,8 @@
     <t>*</t>
   </si>
   <si>
-    <t>Observation of wound tunnels. The tunnel length and clock direction arrays must be the same length, and the order in the arrays is significant*; the elements at the same array position shall be interpreted as pairs.</t>
+    <t>Observation of one or more tunnels on a single wound. The length and clockface direction arrays must be the same length, and the order in the arrays is significant*; the elements at the same array position shall be interpreted as pairs.
+*See https://www.hl7.org/fhir/xml.html: When an element is allowed to repeat, the elements are ordered, and the technical infrastructure needs to be able to access the items in the right order. https://www.hl7.org/fhir/json.html The order of properties of an object is not significant in the JSON representation, though order within an array SHALL be maintained.</t>
   </si>
   <si>
     <t>sw-WoundTunnelingAssessment-model.metadata</t>
